--- a/FoobaSpring/src/main/webapp/fooba.xlsx
+++ b/FoobaSpring/src/main/webapp/fooba.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="6432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19545" windowHeight="6390"/>
   </bookViews>
   <sheets>
     <sheet name="기능정의서" sheetId="1" r:id="rId1"/>
     <sheet name="요구사항 확인" sheetId="2" r:id="rId2"/>
     <sheet name="개발계획" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A13:J32"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1303,7 +1304,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
     <numFmt numFmtId="177" formatCode="mm\/dd"/>
@@ -1652,6 +1653,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1661,88 +1740,10 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="1" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2111,7 +2112,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2121,58 +2122,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" customWidth="1"/>
+    <col min="1" max="1" width="10.25" customWidth="1"/>
     <col min="2" max="2" width="28" customWidth="1"/>
-    <col min="3" max="3" width="26.3984375" customWidth="1"/>
-    <col min="4" max="4" width="43.3984375" customWidth="1"/>
-    <col min="5" max="5" width="25.19921875" customWidth="1"/>
-    <col min="6" max="6" width="5.69921875" customWidth="1"/>
-    <col min="7" max="7" width="5.3984375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.8984375" customWidth="1"/>
+    <col min="3" max="3" width="26.375" customWidth="1"/>
+    <col min="4" max="4" width="43.375" customWidth="1"/>
+    <col min="5" max="5" width="25.25" customWidth="1"/>
+    <col min="6" max="6" width="5.75" customWidth="1"/>
+    <col min="7" max="7" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.875" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
-    <col min="10" max="10" width="35.69921875" customWidth="1"/>
-    <col min="11" max="11" width="9.19921875" customWidth="1"/>
+    <col min="10" max="10" width="35.75" customWidth="1"/>
+    <col min="11" max="11" width="9.25" customWidth="1"/>
     <col min="12" max="12" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>198</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A2" s="51" t="s">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="32" t="s">
         <v>194</v>
       </c>
       <c r="F2" s="13"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A3" s="32" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="43" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -2186,73 +2187,73 @@
       </c>
       <c r="F3" s="11"/>
     </row>
-    <row r="4" spans="1:19" ht="16.2" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
+    <row r="4" spans="1:19" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="34" t="s">
         <v>149</v>
       </c>
       <c r="F4" s="11"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="37"/>
+      <c r="E5" s="44"/>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A6" s="33"/>
-      <c r="B6" s="34"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="42"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="9" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="38"/>
+      <c r="E6" s="35"/>
       <c r="F6" s="11"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A7" s="33"/>
-      <c r="B7" s="34"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="42"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="9" t="s">
         <v>100</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="35" t="s">
+      <c r="E7" s="36" t="s">
         <v>150</v>
       </c>
       <c r="F7" s="11"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A8" s="33"/>
-      <c r="B8" s="34"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="42"/>
+      <c r="B8" s="43"/>
       <c r="C8" s="9" t="s">
         <v>101</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="35"/>
+      <c r="E8" s="36"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A9" s="33"/>
-      <c r="B9" s="34" t="s">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="42"/>
+      <c r="B9" s="43" t="s">
         <v>111</v>
       </c>
       <c r="C9" s="9" t="s">
@@ -2264,9 +2265,9 @@
       <c r="E9" s="2"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="9" t="s">
         <v>7</v>
       </c>
@@ -2276,9 +2277,9 @@
       <c r="E10" s="2"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="42"/>
+      <c r="B11" s="43"/>
       <c r="C11" s="9" t="s">
         <v>103</v>
       </c>
@@ -2290,8 +2291,8 @@
       </c>
       <c r="F11" s="11"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="33"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="42"/>
       <c r="B12" s="5" t="s">
         <v>110</v>
       </c>
@@ -2306,8 +2307,8 @@
       </c>
       <c r="F12" s="11"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A13" s="33"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="42"/>
       <c r="B13" s="5" t="s">
         <v>107</v>
       </c>
@@ -2322,8 +2323,8 @@
       </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="42"/>
       <c r="B14" s="5" t="s">
         <v>98</v>
       </c>
@@ -2338,11 +2339,11 @@
       </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A15" s="25" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="45" t="s">
         <v>33</v>
       </c>
       <c r="C15" s="9" t="s">
@@ -2356,9 +2357,9 @@
       </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="46"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="9" t="s">
         <v>203</v>
       </c>
@@ -2372,9 +2373,9 @@
       <c r="R16" s="12"/>
       <c r="S16" s="12"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A17" s="26"/>
-      <c r="B17" s="26"/>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="9" t="s">
         <v>204</v>
       </c>
@@ -2391,9 +2392,9 @@
       <c r="S17" s="11"/>
       <c r="T17" s="10"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A18" s="46"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="9" t="s">
         <v>205</v>
       </c>
@@ -2403,9 +2404,9 @@
       <c r="E18" s="19"/>
       <c r="F18" s="11"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A19" s="46"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="9" t="s">
         <v>81</v>
       </c>
@@ -2417,9 +2418,9 @@
       </c>
       <c r="F19" s="11"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A20" s="26"/>
-      <c r="B20" s="26"/>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
       <c r="C20" s="9" t="s">
         <v>199</v>
       </c>
@@ -2431,9 +2432,9 @@
       </c>
       <c r="F20" s="11"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A21" s="26"/>
-      <c r="B21" s="26"/>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A21" s="46"/>
+      <c r="B21" s="46"/>
       <c r="C21" s="9" t="s">
         <v>200</v>
       </c>
@@ -2445,9 +2446,9 @@
       </c>
       <c r="F21" s="11"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A22" s="26"/>
-      <c r="B22" s="27"/>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A22" s="46"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="9" t="s">
         <v>79</v>
       </c>
@@ -2457,9 +2458,9 @@
       <c r="E22" s="2"/>
       <c r="F22" s="11"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A23" s="26"/>
-      <c r="B23" s="25" t="s">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A23" s="46"/>
+      <c r="B23" s="45" t="s">
         <v>212</v>
       </c>
       <c r="C23" s="9" t="s">
@@ -2473,9 +2474,9 @@
       </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A24" s="26"/>
-      <c r="B24" s="26"/>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A24" s="46"/>
+      <c r="B24" s="46"/>
       <c r="C24" s="9" t="s">
         <v>105</v>
       </c>
@@ -2487,35 +2488,35 @@
       </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A25" s="26"/>
-      <c r="B25" s="26"/>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
       <c r="C25" s="9" t="s">
         <v>106</v>
       </c>
       <c r="D25" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="E25" s="36" t="s">
         <v>157</v>
       </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A26" s="26"/>
-      <c r="B26" s="26"/>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
       <c r="C26" s="9" t="s">
         <v>113</v>
       </c>
       <c r="D26" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="35"/>
+      <c r="E26" s="36"/>
       <c r="F26" s="11"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="1" t="s">
         <v>114</v>
       </c>
@@ -2527,9 +2528,9 @@
       </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A28" s="26"/>
-      <c r="B28" s="25" t="s">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A28" s="46"/>
+      <c r="B28" s="45" t="s">
         <v>213</v>
       </c>
       <c r="C28" s="9" t="s">
@@ -2538,26 +2539,26 @@
       <c r="D28" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="E28" s="35" t="s">
+      <c r="E28" s="36" t="s">
         <v>159</v>
       </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A29" s="26"/>
-      <c r="B29" s="26"/>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="9" t="s">
         <v>5</v>
       </c>
       <c r="D29" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E29" s="35"/>
+      <c r="E29" s="36"/>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A30" s="26"/>
-      <c r="B30" s="26"/>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="9" t="s">
         <v>201</v>
       </c>
@@ -2567,23 +2568,23 @@
       <c r="E30" s="2"/>
       <c r="F30" s="11"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A31" s="26"/>
-      <c r="B31" s="27"/>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="47"/>
       <c r="C31" s="9" t="s">
         <v>82</v>
       </c>
       <c r="D31" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E31" s="35" t="s">
+      <c r="E31" s="36" t="s">
         <v>166</v>
       </c>
       <c r="F31" s="10"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.4">
-      <c r="A32" s="26"/>
-      <c r="B32" s="25" t="s">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="A32" s="46"/>
+      <c r="B32" s="45" t="s">
         <v>214</v>
       </c>
       <c r="C32" s="9" t="s">
@@ -2592,58 +2593,58 @@
       <c r="D32" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="E32" s="35"/>
+      <c r="E32" s="36"/>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A33" s="26"/>
-      <c r="B33" s="26"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="46"/>
+      <c r="B33" s="46"/>
       <c r="C33" s="9" t="s">
         <v>84</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="35" t="s">
+      <c r="E33" s="36" t="s">
         <v>167</v>
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A34" s="27"/>
-      <c r="B34" s="27"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="47"/>
+      <c r="B34" s="47"/>
       <c r="C34" s="9" t="s">
         <v>78</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="35"/>
+      <c r="E34" s="36"/>
       <c r="F34" s="11"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A35" s="51" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C35" s="51" t="s">
+      <c r="C35" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="D35" s="51" t="s">
+      <c r="D35" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="E35" s="52" t="s">
+      <c r="E35" s="33" t="s">
         <v>194</v>
       </c>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A36" s="28" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="37" t="s">
         <v>43</v>
       </c>
       <c r="C36" s="9" t="s">
@@ -2652,38 +2653,38 @@
       <c r="D36" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="35" t="s">
+      <c r="E36" s="36" t="s">
         <v>169</v>
       </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A37" s="29"/>
-      <c r="B37" s="29"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="9" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E37" s="35"/>
+      <c r="E37" s="36"/>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A38" s="29"/>
-      <c r="B38" s="29"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="9" t="s">
         <v>128</v>
       </c>
       <c r="D38" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E38" s="35"/>
+      <c r="E38" s="36"/>
       <c r="F38" s="11"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A39" s="29"/>
-      <c r="B39" s="30"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="38"/>
+      <c r="B39" s="39"/>
       <c r="C39" s="9" t="s">
         <v>20</v>
       </c>
@@ -2695,9 +2696,9 @@
       </c>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A40" s="29"/>
-      <c r="B40" s="28" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="38"/>
+      <c r="B40" s="37" t="s">
         <v>219</v>
       </c>
       <c r="C40" s="9" t="s">
@@ -2711,9 +2712,9 @@
       </c>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A41" s="29"/>
-      <c r="B41" s="29"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="9" t="s">
         <v>10</v>
       </c>
@@ -2725,9 +2726,9 @@
       </c>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A42" s="29"/>
-      <c r="B42" s="29"/>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="9" t="s">
         <v>11</v>
       </c>
@@ -2739,9 +2740,9 @@
       </c>
       <c r="F42" s="11"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A43" s="29"/>
-      <c r="B43" s="29"/>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="9" t="s">
         <v>12</v>
       </c>
@@ -2753,9 +2754,9 @@
       </c>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A44" s="29"/>
-      <c r="B44" s="29"/>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="9" t="s">
         <v>13</v>
       </c>
@@ -2767,9 +2768,9 @@
       </c>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A45" s="29"/>
-      <c r="B45" s="29"/>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
       <c r="C45" s="9" t="s">
         <v>15</v>
       </c>
@@ -2781,9 +2782,9 @@
       </c>
       <c r="F45" s="11"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A46" s="29"/>
-      <c r="B46" s="30"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A46" s="38"/>
+      <c r="B46" s="39"/>
       <c r="C46" s="9" t="s">
         <v>14</v>
       </c>
@@ -2795,9 +2796,9 @@
       </c>
       <c r="F46" s="11"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A47" s="29"/>
-      <c r="B47" s="28" t="s">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A47" s="38"/>
+      <c r="B47" s="37" t="s">
         <v>220</v>
       </c>
       <c r="C47" s="9" t="s">
@@ -2806,26 +2807,26 @@
       <c r="D47" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E47" s="35" t="s">
+      <c r="E47" s="36" t="s">
         <v>185</v>
       </c>
       <c r="F47" s="11"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A48" s="29"/>
-      <c r="B48" s="30"/>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A48" s="38"/>
+      <c r="B48" s="39"/>
       <c r="C48" s="9" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E48" s="35"/>
+      <c r="E48" s="36"/>
       <c r="F48" s="11"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A49" s="29"/>
-      <c r="B49" s="28" t="s">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A49" s="38"/>
+      <c r="B49" s="37" t="s">
         <v>221</v>
       </c>
       <c r="C49" s="9" t="s">
@@ -2839,9 +2840,9 @@
       </c>
       <c r="F49" s="11"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A50" s="29"/>
-      <c r="B50" s="29"/>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="9" t="s">
         <v>142</v>
       </c>
@@ -2853,9 +2854,9 @@
       </c>
       <c r="F50" s="11"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A51" s="29"/>
-      <c r="B51" s="30"/>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A51" s="38"/>
+      <c r="B51" s="39"/>
       <c r="C51" s="9" t="s">
         <v>19</v>
       </c>
@@ -2867,9 +2868,9 @@
       </c>
       <c r="F51" s="11"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A52" s="29"/>
-      <c r="B52" s="28" t="s">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A52" s="38"/>
+      <c r="B52" s="37" t="s">
         <v>222</v>
       </c>
       <c r="C52" s="9" t="s">
@@ -2883,9 +2884,9 @@
       </c>
       <c r="F52" s="11"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A53" s="29"/>
-      <c r="B53" s="29"/>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="9" t="s">
         <v>58</v>
       </c>
@@ -2897,9 +2898,9 @@
       </c>
       <c r="F53" s="11"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A54" s="29"/>
-      <c r="B54" s="29"/>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="9" t="s">
         <v>59</v>
       </c>
@@ -2911,35 +2912,35 @@
       </c>
       <c r="F54" s="11"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A55" s="29"/>
-      <c r="B55" s="29"/>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="9" t="s">
         <v>60</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E55" s="35" t="s">
+      <c r="E55" s="36" t="s">
         <v>190</v>
       </c>
       <c r="F55" s="11"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A56" s="29"/>
-      <c r="B56" s="29"/>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="9" t="s">
         <v>61</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E56" s="35"/>
+      <c r="E56" s="36"/>
       <c r="F56" s="11"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A57" s="29"/>
-      <c r="B57" s="29"/>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="9" t="s">
         <v>62</v>
       </c>
@@ -2951,9 +2952,9 @@
       </c>
       <c r="F57" s="10"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A58" s="29"/>
-      <c r="B58" s="29"/>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="9" t="s">
         <v>140</v>
       </c>
@@ -2965,9 +2966,9 @@
       </c>
       <c r="F58" s="11"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A59" s="29"/>
-      <c r="B59" s="29"/>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
       <c r="C59" s="9" t="s">
         <v>139</v>
       </c>
@@ -2979,9 +2980,9 @@
       </c>
       <c r="F59" s="11"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A60" s="30"/>
-      <c r="B60" s="30"/>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A60" s="39"/>
+      <c r="B60" s="39"/>
       <c r="C60" s="9" t="s">
         <v>138</v>
       </c>
@@ -2993,29 +2994,29 @@
       </c>
       <c r="F60" s="11"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A61" s="51" t="s">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A61" s="32" t="s">
         <v>217</v>
       </c>
-      <c r="B61" s="51" t="s">
+      <c r="B61" s="32" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="51" t="s">
+      <c r="C61" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="D61" s="51" t="s">
+      <c r="D61" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="E61" s="52" t="s">
+      <c r="E61" s="33" t="s">
         <v>194</v>
       </c>
       <c r="F61" s="11"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A62" s="22" t="s">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A62" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="B62" s="22" t="s">
+      <c r="B62" s="48" t="s">
         <v>224</v>
       </c>
       <c r="C62" s="9" t="s">
@@ -3024,26 +3025,26 @@
       <c r="D62" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="36" t="s">
+      <c r="E62" s="34" t="s">
         <v>160</v>
       </c>
       <c r="F62" s="11"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A63" s="49"/>
+      <c r="B63" s="49"/>
       <c r="C63" s="9" t="s">
         <v>85</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E63" s="38"/>
+      <c r="E63" s="35"/>
       <c r="F63" s="11"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A64" s="23"/>
-      <c r="B64" s="24"/>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A64" s="49"/>
+      <c r="B64" s="50"/>
       <c r="C64" s="9" t="s">
         <v>86</v>
       </c>
@@ -3053,9 +3054,9 @@
       <c r="E64" s="2"/>
       <c r="F64" s="11"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A65" s="23"/>
-      <c r="B65" s="22" t="s">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" s="49"/>
+      <c r="B65" s="48" t="s">
         <v>225</v>
       </c>
       <c r="C65" s="9" t="s">
@@ -3069,35 +3070,35 @@
       </c>
       <c r="F65" s="11"/>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A66" s="23"/>
-      <c r="B66" s="23"/>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" s="49"/>
+      <c r="B66" s="49"/>
       <c r="C66" s="9" t="s">
         <v>88</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="E66" s="36" t="s">
+      <c r="E66" s="34" t="s">
         <v>180</v>
       </c>
       <c r="F66" s="11"/>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A67" s="23"/>
-      <c r="B67" s="23"/>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" s="49"/>
+      <c r="B67" s="49"/>
       <c r="C67" s="9" t="s">
         <v>89</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="E67" s="38"/>
+      <c r="E67" s="35"/>
       <c r="F67" s="11"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A68" s="23"/>
-      <c r="B68" s="24"/>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="49"/>
+      <c r="B68" s="50"/>
       <c r="C68" s="9" t="s">
         <v>129</v>
       </c>
@@ -3109,8 +3110,8 @@
       </c>
       <c r="F68" s="11"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A69" s="23"/>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" s="49"/>
       <c r="B69" s="6" t="s">
         <v>226</v>
       </c>
@@ -3125,9 +3126,9 @@
       </c>
       <c r="F69" s="11"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A70" s="23"/>
-      <c r="B70" s="22" t="s">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="49"/>
+      <c r="B70" s="48" t="s">
         <v>227</v>
       </c>
       <c r="C70" s="9" t="s">
@@ -3141,35 +3142,35 @@
       </c>
       <c r="F70" s="11"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A71" s="23"/>
-      <c r="B71" s="23"/>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71" s="49"/>
+      <c r="B71" s="49"/>
       <c r="C71" s="9" t="s">
         <v>131</v>
       </c>
       <c r="D71" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E71" s="36" t="s">
+      <c r="E71" s="34" t="s">
         <v>179</v>
       </c>
       <c r="F71" s="11"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A72" s="23"/>
-      <c r="B72" s="24"/>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" s="49"/>
+      <c r="B72" s="50"/>
       <c r="C72" s="9" t="s">
         <v>132</v>
       </c>
       <c r="D72" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="E72" s="38"/>
+      <c r="E72" s="35"/>
       <c r="F72" s="11"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A73" s="23"/>
-      <c r="B73" s="22" t="s">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" s="49"/>
+      <c r="B73" s="48" t="s">
         <v>228</v>
       </c>
       <c r="C73" s="9" t="s">
@@ -3183,9 +3184,9 @@
       </c>
       <c r="F73" s="11"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A74" s="23"/>
-      <c r="B74" s="23"/>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" s="49"/>
+      <c r="B74" s="49"/>
       <c r="C74" s="9" t="s">
         <v>93</v>
       </c>
@@ -3197,62 +3198,62 @@
       </c>
       <c r="F74" s="11"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A75" s="23"/>
-      <c r="B75" s="23"/>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75" s="49"/>
+      <c r="B75" s="49"/>
       <c r="C75" s="9" t="s">
         <v>94</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E75" s="36" t="s">
+      <c r="E75" s="34" t="s">
         <v>177</v>
       </c>
       <c r="F75" s="11"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A76" s="23"/>
-      <c r="B76" s="23"/>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76" s="49"/>
+      <c r="B76" s="49"/>
       <c r="C76" s="9" t="s">
         <v>95</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E76" s="38"/>
+      <c r="E76" s="35"/>
       <c r="F76" s="11"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A77" s="23"/>
-      <c r="B77" s="23"/>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77" s="49"/>
+      <c r="B77" s="49"/>
       <c r="C77" s="9" t="s">
         <v>96</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E77" s="36" t="s">
+      <c r="E77" s="34" t="s">
         <v>175</v>
       </c>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="I77" s="11"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A78" s="23"/>
-      <c r="B78" s="23"/>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78" s="49"/>
+      <c r="B78" s="49"/>
       <c r="C78" s="9" t="s">
         <v>97</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="E78" s="38"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A79" s="23"/>
-      <c r="B79" s="23"/>
+      <c r="E78" s="35"/>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79" s="49"/>
+      <c r="B79" s="49"/>
       <c r="C79" s="9" t="s">
         <v>137</v>
       </c>
@@ -3263,9 +3264,9 @@
         <v>176</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A80" s="23"/>
-      <c r="B80" s="23"/>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" s="49"/>
+      <c r="B80" s="49"/>
       <c r="C80" s="9" t="s">
         <v>135</v>
       </c>
@@ -3276,9 +3277,9 @@
         <v>174</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A81" s="24"/>
-      <c r="B81" s="24"/>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="50"/>
+      <c r="B81" s="50"/>
       <c r="C81" s="9" t="s">
         <v>136</v>
       </c>
@@ -3289,37 +3290,35 @@
         <v>173</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="21"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C86" s="3"/>
       <c r="D86" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="E36:E38"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="B70:B72"/>
+    <mergeCell ref="B73:B81"/>
+    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="B36:B39"/>
+    <mergeCell ref="B40:B46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B62:B64"/>
+    <mergeCell ref="B65:B68"/>
     <mergeCell ref="B49:B51"/>
     <mergeCell ref="B52:B60"/>
     <mergeCell ref="A36:A60"/>
@@ -3336,14 +3335,16 @@
     <mergeCell ref="B28:B31"/>
     <mergeCell ref="A15:A34"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B36:B39"/>
-    <mergeCell ref="B40:B46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B62:B64"/>
-    <mergeCell ref="B65:B68"/>
-    <mergeCell ref="B70:B72"/>
-    <mergeCell ref="B73:B81"/>
-    <mergeCell ref="A62:A81"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E55:E56"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C23:C25">
@@ -3395,31 +3396,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.19921875" customWidth="1"/>
+    <col min="1" max="1" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" customWidth="1"/>
     <col min="4" max="4" width="46" customWidth="1"/>
-    <col min="5" max="5" width="9.19921875" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.25" customWidth="1"/>
+    <col min="6" max="6" width="8.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>233</v>
       </c>
@@ -3440,7 +3441,7 @@
       </c>
       <c r="H2" s="13"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="20">
         <v>1</v>
       </c>
@@ -3461,7 +3462,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="20">
         <v>2</v>
       </c>
@@ -3482,7 +3483,7 @@
       </c>
       <c r="G4" s="1"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="20">
         <v>3</v>
       </c>
@@ -3503,7 +3504,7 @@
       </c>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="20">
         <v>4</v>
       </c>
@@ -3523,7 +3524,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="20">
         <v>5</v>
       </c>
@@ -3543,7 +3544,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="20">
         <v>6</v>
       </c>
@@ -3563,7 +3564,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="20">
         <v>7</v>
       </c>
@@ -3583,7 +3584,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>8</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="20">
         <v>9</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="20">
         <v>10</v>
       </c>
@@ -3643,7 +3644,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="20">
         <v>11</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="20">
         <v>12</v>
       </c>
@@ -3683,7 +3684,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="20">
         <v>13</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="20">
         <v>14</v>
       </c>
@@ -3723,7 +3724,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="20">
         <v>15</v>
       </c>
@@ -3743,7 +3744,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="20">
         <v>16</v>
       </c>
@@ -3763,7 +3764,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="20">
         <v>17</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="20">
         <v>18</v>
       </c>
@@ -3803,7 +3804,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="20">
         <v>19</v>
       </c>
@@ -3823,7 +3824,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="8">
         <v>20</v>
       </c>
@@ -3833,7 +3834,7 @@
       <c r="E22" s="14"/>
       <c r="F22" s="14"/>
     </row>
-    <row r="23" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="8">
         <v>21</v>
       </c>
@@ -3843,7 +3844,7 @@
       <c r="E23" s="14"/>
       <c r="F23" s="14"/>
     </row>
-    <row r="24" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="8">
         <v>22</v>
       </c>
@@ -3853,7 +3854,7 @@
       <c r="E24" s="14"/>
       <c r="F24" s="14"/>
     </row>
-    <row r="25" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="8">
         <v>23</v>
       </c>
@@ -3863,7 +3864,7 @@
       <c r="E25" s="14"/>
       <c r="F25" s="14"/>
     </row>
-    <row r="26" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="8">
         <v>24</v>
       </c>
@@ -3873,7 +3874,7 @@
       <c r="E26" s="14"/>
       <c r="F26" s="14"/>
     </row>
-    <row r="27" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="8">
         <v>25</v>
       </c>
@@ -3883,7 +3884,7 @@
       <c r="E27" s="14"/>
       <c r="F27" s="14"/>
     </row>
-    <row r="28" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="8">
         <v>26</v>
       </c>
@@ -3893,7 +3894,7 @@
       <c r="E28" s="14"/>
       <c r="F28" s="14"/>
     </row>
-    <row r="29" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>27</v>
       </c>
@@ -3903,7 +3904,7 @@
       <c r="E29" s="14"/>
       <c r="F29" s="14"/>
     </row>
-    <row r="30" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>28</v>
       </c>
@@ -3913,7 +3914,7 @@
       <c r="E30" s="14"/>
       <c r="F30" s="14"/>
     </row>
-    <row r="31" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>29</v>
       </c>
@@ -3923,7 +3924,7 @@
       <c r="E31" s="14"/>
       <c r="F31" s="14"/>
     </row>
-    <row r="32" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>30</v>
       </c>
@@ -3933,7 +3934,7 @@
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
     </row>
-    <row r="33" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>31</v>
       </c>
@@ -3943,7 +3944,7 @@
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
     </row>
-    <row r="34" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>32</v>
       </c>
@@ -3953,7 +3954,7 @@
       <c r="E34" s="14"/>
       <c r="F34" s="14"/>
     </row>
-    <row r="35" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>33</v>
       </c>
@@ -3963,7 +3964,7 @@
       <c r="E35" s="14"/>
       <c r="F35" s="14"/>
     </row>
-    <row r="36" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>34</v>
       </c>
@@ -3973,7 +3974,7 @@
       <c r="E36" s="14"/>
       <c r="F36" s="14"/>
     </row>
-    <row r="37" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>35</v>
       </c>
@@ -3983,7 +3984,7 @@
       <c r="E37" s="14"/>
       <c r="F37" s="14"/>
     </row>
-    <row r="38" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="8">
         <v>36</v>
       </c>
@@ -3993,7 +3994,7 @@
       <c r="E38" s="14"/>
       <c r="F38" s="14"/>
     </row>
-    <row r="39" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="8">
         <v>37</v>
       </c>
@@ -4003,7 +4004,7 @@
       <c r="E39" s="14"/>
       <c r="F39" s="14"/>
     </row>
-    <row r="40" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="8">
         <v>38</v>
       </c>
@@ -4013,7 +4014,7 @@
       <c r="E40" s="14"/>
       <c r="F40" s="14"/>
     </row>
-    <row r="41" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="8">
         <v>39</v>
       </c>
@@ -4023,7 +4024,7 @@
       <c r="E41" s="14"/>
       <c r="F41" s="14"/>
     </row>
-    <row r="42" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="8">
         <v>40</v>
       </c>
@@ -4033,7 +4034,7 @@
       <c r="E42" s="14"/>
       <c r="F42" s="14"/>
     </row>
-    <row r="43" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="8">
         <v>41</v>
       </c>
@@ -4043,7 +4044,7 @@
       <c r="E43" s="14"/>
       <c r="F43" s="14"/>
     </row>
-    <row r="44" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="8">
         <v>42</v>
       </c>
@@ -4053,7 +4054,7 @@
       <c r="E44" s="14"/>
       <c r="F44" s="14"/>
     </row>
-    <row r="45" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="8">
         <v>43</v>
       </c>
@@ -4063,7 +4064,7 @@
       <c r="E45" s="14"/>
       <c r="F45" s="14"/>
     </row>
-    <row r="46" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="8">
         <v>44</v>
       </c>
@@ -4073,7 +4074,7 @@
       <c r="E46" s="14"/>
       <c r="F46" s="14"/>
     </row>
-    <row r="47" spans="1:6" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="8">
         <v>45</v>
       </c>
@@ -4083,7 +4084,7 @@
       <c r="E47" s="14"/>
       <c r="F47" s="14"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="8">
         <v>46</v>
       </c>
@@ -4093,7 +4094,7 @@
       <c r="E48" s="14"/>
       <c r="F48" s="14"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="8">
         <v>47</v>
       </c>
@@ -4103,7 +4104,7 @@
       <c r="E49" s="14"/>
       <c r="F49" s="14"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="8">
         <v>48</v>
       </c>
@@ -4113,7 +4114,7 @@
       <c r="E50" s="14"/>
       <c r="F50" s="14"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="8">
         <v>49</v>
       </c>
@@ -4123,7 +4124,7 @@
       <c r="E51" s="14"/>
       <c r="F51" s="14"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="8">
         <v>50</v>
       </c>
@@ -4147,627 +4148,627 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:V28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="33.59765625" customWidth="1"/>
-    <col min="4" max="22" width="9.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.625" customWidth="1"/>
+    <col min="4" max="22" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" s="16" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="3" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B3" s="39"/>
-      <c r="C3" s="40" t="s">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B3" s="52"/>
+      <c r="C3" s="51" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="40" t="s">
+      <c r="D3" s="51" t="s">
         <v>284</v>
       </c>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40" t="s">
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51" t="s">
         <v>285</v>
       </c>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40"/>
-      <c r="M3" s="40"/>
-      <c r="N3" s="40" t="s">
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51" t="s">
         <v>286</v>
       </c>
-      <c r="O3" s="40"/>
-      <c r="P3" s="40"/>
-      <c r="Q3" s="40"/>
-      <c r="R3" s="40"/>
-    </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B4" s="39"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="41">
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="52"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="22">
         <v>45286</v>
       </c>
-      <c r="E4" s="41">
+      <c r="E4" s="22">
         <v>45287</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="22">
         <v>45288</v>
       </c>
-      <c r="G4" s="41">
+      <c r="G4" s="22">
         <v>45289</v>
       </c>
-      <c r="H4" s="41">
+      <c r="H4" s="22">
         <v>45290</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="22">
         <v>44928</v>
       </c>
-      <c r="J4" s="41">
+      <c r="J4" s="22">
         <v>44929</v>
       </c>
-      <c r="K4" s="41">
+      <c r="K4" s="22">
         <v>44930</v>
       </c>
-      <c r="L4" s="41">
+      <c r="L4" s="22">
         <v>44931</v>
       </c>
-      <c r="M4" s="41">
+      <c r="M4" s="22">
         <v>44932</v>
       </c>
-      <c r="N4" s="41">
+      <c r="N4" s="22">
         <v>44935</v>
       </c>
-      <c r="O4" s="41">
+      <c r="O4" s="22">
         <v>44936</v>
       </c>
-      <c r="P4" s="41">
+      <c r="P4" s="22">
         <v>44937</v>
       </c>
-      <c r="Q4" s="41">
+      <c r="Q4" s="22">
         <v>44938</v>
       </c>
-      <c r="R4" s="41">
+      <c r="R4" s="22">
         <v>44939</v>
       </c>
       <c r="T4" s="15"/>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B5" s="40" t="s">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="51" t="s">
         <v>287</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="23" t="s">
         <v>288</v>
       </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="44"/>
-      <c r="K5" s="44"/>
-      <c r="L5" s="44"/>
-      <c r="M5" s="44"/>
-      <c r="N5" s="44"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="44"/>
-      <c r="Q5" s="44"/>
-      <c r="R5" s="44"/>
-    </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B6" s="40"/>
-      <c r="C6" s="42" t="s">
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="25"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="25"/>
+    </row>
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="51"/>
+      <c r="C6" s="23" t="s">
         <v>289</v>
       </c>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="44"/>
-      <c r="K6" s="44"/>
-      <c r="L6" s="44"/>
-      <c r="M6" s="44"/>
-      <c r="N6" s="44"/>
-      <c r="O6" s="44"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-    </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B7" s="40"/>
-      <c r="C7" s="42" t="s">
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="25"/>
+      <c r="O6" s="25"/>
+      <c r="P6" s="25"/>
+      <c r="Q6" s="25"/>
+      <c r="R6" s="25"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B7" s="51"/>
+      <c r="C7" s="23" t="s">
         <v>290</v>
       </c>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="44"/>
-      <c r="K7" s="44"/>
-      <c r="L7" s="44"/>
-      <c r="M7" s="44"/>
-      <c r="N7" s="44"/>
-      <c r="O7" s="44"/>
-      <c r="P7" s="44"/>
-      <c r="Q7" s="44"/>
-      <c r="R7" s="44"/>
-    </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B8" s="40" t="s">
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
+      <c r="R7" s="25"/>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B8" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="23" t="s">
         <v>292</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="44"/>
-      <c r="K8" s="44"/>
-      <c r="L8" s="44"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="44"/>
-      <c r="O8" s="44"/>
-      <c r="P8" s="44"/>
-      <c r="Q8" s="44"/>
-      <c r="R8" s="44"/>
-    </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B9" s="40"/>
-      <c r="C9" s="42" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+      <c r="K8" s="25"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="25"/>
+      <c r="P8" s="25"/>
+      <c r="Q8" s="25"/>
+      <c r="R8" s="25"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B9" s="51"/>
+      <c r="C9" s="23" t="s">
         <v>293</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="44"/>
-      <c r="K9" s="44"/>
-      <c r="L9" s="44"/>
-      <c r="M9" s="44"/>
-      <c r="N9" s="44"/>
-      <c r="O9" s="44"/>
-      <c r="P9" s="44"/>
-      <c r="Q9" s="44"/>
-      <c r="R9" s="44"/>
-    </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B10" s="40"/>
-      <c r="C10" s="42" t="s">
+      <c r="D9" s="25"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="25"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="25"/>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B10" s="51"/>
+      <c r="C10" s="23" t="s">
         <v>294</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44"/>
-      <c r="I10" s="44"/>
-      <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="44"/>
-      <c r="M10" s="44"/>
-      <c r="N10" s="44"/>
-      <c r="O10" s="44"/>
-      <c r="P10" s="44"/>
-      <c r="Q10" s="44"/>
-      <c r="R10" s="44"/>
-    </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B11" s="40"/>
-      <c r="C11" s="42" t="s">
+      <c r="D10" s="25"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="25"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="25"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="51"/>
+      <c r="C11" s="23" t="s">
         <v>295</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
-      <c r="I11" s="46"/>
-      <c r="J11" s="46"/>
-      <c r="K11" s="46"/>
-      <c r="L11" s="46"/>
-      <c r="M11" s="46"/>
-      <c r="N11" s="46"/>
-      <c r="O11" s="46"/>
-      <c r="P11" s="46"/>
-      <c r="Q11" s="44"/>
-      <c r="R11" s="44"/>
-    </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B12" s="40"/>
-      <c r="C12" s="42" t="s">
+      <c r="D11" s="25"/>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="27"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="25"/>
+      <c r="R11" s="25"/>
+    </row>
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="51"/>
+      <c r="C12" s="23" t="s">
         <v>296</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="46"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="44"/>
-      <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="44"/>
-      <c r="M12" s="44"/>
-      <c r="N12" s="44"/>
-      <c r="O12" s="44"/>
-      <c r="P12" s="44"/>
-      <c r="Q12" s="44"/>
-      <c r="R12" s="44"/>
-    </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B13" s="40"/>
-      <c r="C13" s="42" t="s">
+      <c r="D12" s="25"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="25"/>
+      <c r="P12" s="25"/>
+      <c r="Q12" s="25"/>
+      <c r="R12" s="25"/>
+    </row>
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B13" s="51"/>
+      <c r="C13" s="23" t="s">
         <v>297</v>
       </c>
-      <c r="D13" s="44"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="46"/>
-      <c r="H13" s="44"/>
-      <c r="I13" s="44"/>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="44"/>
-      <c r="N13" s="44"/>
-      <c r="O13" s="44"/>
-      <c r="P13" s="44"/>
-      <c r="Q13" s="44"/>
-      <c r="R13" s="44"/>
-    </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B14" s="40"/>
-      <c r="C14" s="42" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="25"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="25"/>
+      <c r="Q13" s="25"/>
+      <c r="R13" s="25"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="51"/>
+      <c r="C14" s="23" t="s">
         <v>298</v>
       </c>
-      <c r="D14" s="44"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="46"/>
-      <c r="G14" s="46"/>
-      <c r="H14" s="46"/>
-      <c r="I14" s="46"/>
-      <c r="J14" s="46"/>
-      <c r="K14" s="46"/>
-      <c r="L14" s="44"/>
-      <c r="M14" s="44"/>
-      <c r="N14" s="44"/>
-      <c r="O14" s="44"/>
-      <c r="P14" s="44"/>
-      <c r="Q14" s="44"/>
-      <c r="R14" s="44"/>
-    </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B15" s="40"/>
-      <c r="C15" s="42" t="s">
+      <c r="D14" s="25"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="25"/>
+    </row>
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B15" s="51"/>
+      <c r="C15" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="D15" s="44"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="44"/>
-      <c r="I15" s="44"/>
-      <c r="J15" s="44"/>
-      <c r="K15" s="44"/>
-      <c r="L15" s="44"/>
-      <c r="M15" s="44"/>
-      <c r="N15" s="44"/>
-      <c r="O15" s="44"/>
-      <c r="P15" s="44"/>
-      <c r="Q15" s="44"/>
-      <c r="R15" s="44"/>
-    </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.4">
-      <c r="B16" s="40" t="s">
+      <c r="D15" s="25"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="25"/>
+      <c r="O15" s="25"/>
+      <c r="P15" s="25"/>
+      <c r="Q15" s="25"/>
+      <c r="R15" s="25"/>
+    </row>
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B16" s="51" t="s">
         <v>300</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="23" t="s">
         <v>301</v>
       </c>
-      <c r="D16" s="44"/>
-      <c r="E16" s="47"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44"/>
-      <c r="M16" s="44"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="44"/>
-      <c r="R16" s="44"/>
-    </row>
-    <row r="17" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B17" s="40"/>
-      <c r="C17" s="42" t="s">
+      <c r="D16" s="25"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="25"/>
+      <c r="P16" s="25"/>
+      <c r="Q16" s="25"/>
+      <c r="R16" s="25"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B17" s="51"/>
+      <c r="C17" s="23" t="s">
         <v>302</v>
       </c>
-      <c r="D17" s="44"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="44"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="44"/>
-      <c r="R17" s="44"/>
-    </row>
-    <row r="18" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B18" s="40"/>
-      <c r="C18" s="42" t="s">
+      <c r="D17" s="25"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="25"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="25"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="25"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B18" s="51"/>
+      <c r="C18" s="23" t="s">
         <v>303</v>
       </c>
-      <c r="D18" s="44"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="44"/>
-      <c r="R18" s="44"/>
-    </row>
-    <row r="19" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B19" s="40"/>
-      <c r="C19" s="42" t="s">
+      <c r="D18" s="25"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="28"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="25"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B19" s="51"/>
+      <c r="C19" s="23" t="s">
         <v>304</v>
       </c>
-      <c r="D19" s="44"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-    </row>
-    <row r="20" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B20" s="40"/>
-      <c r="C20" s="42" t="s">
+      <c r="D19" s="25"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="28"/>
+      <c r="N19" s="28"/>
+      <c r="O19" s="28"/>
+      <c r="P19" s="28"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="25"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B20" s="51"/>
+      <c r="C20" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="44"/>
-      <c r="R20" s="44"/>
-    </row>
-    <row r="21" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B21" s="40"/>
-      <c r="C21" s="42" t="s">
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="28"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="25"/>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="25"/>
+      <c r="R20" s="25"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B21" s="51"/>
+      <c r="C21" s="23" t="s">
         <v>306</v>
       </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="44"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="44"/>
-    </row>
-    <row r="22" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B22" s="40" t="s">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="28"/>
+      <c r="N21" s="28"/>
+      <c r="O21" s="28"/>
+      <c r="P21" s="28"/>
+      <c r="Q21" s="25"/>
+      <c r="R21" s="25"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B22" s="51" t="s">
         <v>307</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="23" t="s">
         <v>308</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="48"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44"/>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="44"/>
-      <c r="R22" s="44"/>
-    </row>
-    <row r="23" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B23" s="40"/>
-      <c r="C23" s="42" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="25"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="25"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B23" s="51"/>
+      <c r="C23" s="23" t="s">
         <v>309</v>
       </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="44"/>
-    </row>
-    <row r="24" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B24" s="40"/>
-      <c r="C24" s="42" t="s">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="25"/>
+      <c r="R23" s="25"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B24" s="51"/>
+      <c r="C24" s="23" t="s">
         <v>310</v>
       </c>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="48"/>
-      <c r="I24" s="48"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="44"/>
-      <c r="O24" s="44"/>
-      <c r="P24" s="44"/>
-      <c r="Q24" s="44"/>
-      <c r="R24" s="44"/>
-    </row>
-    <row r="25" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B25" s="40"/>
-      <c r="C25" s="42" t="s">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="25"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="25"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="25"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B25" s="51"/>
+      <c r="C25" s="23" t="s">
         <v>311</v>
       </c>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="44"/>
-      <c r="O25" s="44"/>
-      <c r="P25" s="44"/>
-      <c r="Q25" s="44"/>
-      <c r="R25" s="44"/>
-    </row>
-    <row r="26" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B26" s="40"/>
-      <c r="C26" s="42" t="s">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="25"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="25"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B26" s="51"/>
+      <c r="C26" s="23" t="s">
         <v>312</v>
       </c>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="48"/>
-      <c r="I26" s="48"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="48"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="44"/>
-      <c r="R26" s="44"/>
-    </row>
-    <row r="27" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B27" s="40" t="s">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="25"/>
+      <c r="R26" s="25"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B27" s="51" t="s">
         <v>313</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="44"/>
-      <c r="J27" s="44"/>
-      <c r="K27" s="44"/>
-      <c r="L27" s="44"/>
-      <c r="M27" s="44"/>
-      <c r="N27" s="44"/>
-      <c r="O27" s="44"/>
-      <c r="P27" s="50"/>
-      <c r="Q27" s="50"/>
-      <c r="R27" s="50"/>
-    </row>
-    <row r="28" spans="2:18" x14ac:dyDescent="0.4">
-      <c r="B28" s="40"/>
-      <c r="C28" s="42" t="s">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="25"/>
+      <c r="K27" s="25"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="25"/>
+      <c r="O27" s="25"/>
+      <c r="P27" s="31"/>
+      <c r="Q27" s="31"/>
+      <c r="R27" s="31"/>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B28" s="51"/>
+      <c r="C28" s="23" t="s">
         <v>315</v>
       </c>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="44"/>
-      <c r="J28" s="44"/>
-      <c r="K28" s="44"/>
-      <c r="L28" s="44"/>
-      <c r="M28" s="44"/>
-      <c r="N28" s="44"/>
-      <c r="O28" s="44"/>
-      <c r="P28" s="50"/>
-      <c r="Q28" s="50"/>
-      <c r="R28" s="50"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="25"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B8:B15"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:H3"/>
     <mergeCell ref="I3:M3"/>
     <mergeCell ref="N3:R3"/>
     <mergeCell ref="B16:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B8:B15"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B3:B4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
